--- a/input/test2.xlsx
+++ b/input/test2.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678AA7A5-46B4-4D32-9789-C88B514DEA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="19330" yWindow="4730" windowWidth="14380" windowHeight="13760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="#test2" sheetId="2" r:id="rId2"/>
-    <sheet name="#test3" sheetId="3" r:id="rId3"/>
+    <sheet name="test2" sheetId="2" r:id="rId2"/>
+    <sheet name="test3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,9 +253,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,31 +498,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="10" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -553,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>101</v>
       </c>
@@ -582,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>201</v>
       </c>
@@ -612,7 +613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>301</v>
       </c>
@@ -642,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,19 +656,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -675,17 +676,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,16 +698,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -732,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.02</v>
       </c>
@@ -761,7 +762,7 @@
         <v>1.1400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
